--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt1-Ror2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt1-Ror2.xlsx
@@ -537,16 +537,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H2">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I2">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J2">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.0552105</v>
+        <v>0.071358</v>
       </c>
       <c r="N2">
-        <v>0.110421</v>
+        <v>0.142716</v>
       </c>
       <c r="O2">
-        <v>0.01579120108286445</v>
+        <v>0.01919591193090569</v>
       </c>
       <c r="P2">
-        <v>0.01113815545262342</v>
+        <v>0.01411929935366186</v>
       </c>
       <c r="Q2">
-        <v>0.01089018830925</v>
+        <v>0.002086115451</v>
       </c>
       <c r="R2">
-        <v>0.043560753237</v>
+        <v>0.008344461804000001</v>
       </c>
       <c r="S2">
-        <v>0.01330967794736614</v>
+        <v>0.008501418521963362</v>
       </c>
       <c r="T2">
-        <v>0.008703944756288978</v>
+        <v>0.004890734514886253</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H3">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I3">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J3">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>7.967055</v>
       </c>
       <c r="O3">
-        <v>0.7595739188695423</v>
+        <v>0.7144019644080171</v>
       </c>
       <c r="P3">
-        <v>0.8036360573586609</v>
+        <v>0.7882033865305114</v>
       </c>
       <c r="Q3">
-        <v>0.5238298827225</v>
+        <v>0.0776376231325</v>
       </c>
       <c r="R3">
-        <v>3.142979296335</v>
+        <v>0.465825738795</v>
       </c>
       <c r="S3">
-        <v>0.6402099615046242</v>
+        <v>0.3163918502130142</v>
       </c>
       <c r="T3">
-        <v>0.6280037908578611</v>
+        <v>0.2730230028202661</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H4">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I4">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J4">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5198769999999999</v>
+        <v>0.9728370000000001</v>
       </c>
       <c r="N4">
-        <v>1.039754</v>
+        <v>1.945674</v>
       </c>
       <c r="O4">
-        <v>0.1486942202181889</v>
+        <v>0.2617014683024538</v>
       </c>
       <c r="P4">
-        <v>0.1048798841206565</v>
+        <v>0.1924910567184946</v>
       </c>
       <c r="Q4">
-        <v>0.1025449584345</v>
+        <v>0.0284404032765</v>
       </c>
       <c r="R4">
-        <v>0.4101798337379999</v>
+        <v>0.113761613106</v>
       </c>
       <c r="S4">
-        <v>0.1253275272320096</v>
+        <v>0.1159014334854014</v>
       </c>
       <c r="T4">
-        <v>0.08195869785756774</v>
+        <v>0.06667630109109558</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H5">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I5">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J5">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.26551</v>
+        <v>0.017474</v>
       </c>
       <c r="N5">
-        <v>0.7965300000000001</v>
+        <v>0.052422</v>
       </c>
       <c r="O5">
-        <v>0.07594065982940454</v>
+        <v>0.004700655358623364</v>
       </c>
       <c r="P5">
-        <v>0.08034590306805893</v>
+        <v>0.005186257397332197</v>
       </c>
       <c r="Q5">
-        <v>0.05237144923500001</v>
+        <v>0.000510843653</v>
       </c>
       <c r="R5">
-        <v>0.31422869541</v>
+        <v>0.003065061918</v>
       </c>
       <c r="S5">
-        <v>0.06400689346782197</v>
+        <v>0.002081809849670503</v>
       </c>
       <c r="T5">
-        <v>0.06278654528329629</v>
+        <v>0.001796449485267014</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.110328</v>
       </c>
       <c r="I6">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J6">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.0552105</v>
+        <v>0.071358</v>
       </c>
       <c r="N6">
-        <v>0.110421</v>
+        <v>0.142716</v>
       </c>
       <c r="O6">
-        <v>0.01579120108286445</v>
+        <v>0.01919591193090569</v>
       </c>
       <c r="P6">
-        <v>0.01113815545262342</v>
+        <v>0.01411929935366186</v>
       </c>
       <c r="Q6">
-        <v>0.002030421348</v>
+        <v>0.002624261808</v>
       </c>
       <c r="R6">
-        <v>0.012182528088</v>
+        <v>0.015745570848</v>
       </c>
       <c r="S6">
-        <v>0.002481523135498304</v>
+        <v>0.01069449340894233</v>
       </c>
       <c r="T6">
-        <v>0.002434210696334447</v>
+        <v>0.009228564838775601</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.110328</v>
       </c>
       <c r="I7">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J7">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>7.967055</v>
       </c>
       <c r="O7">
-        <v>0.7595739188695423</v>
+        <v>0.7144019644080171</v>
       </c>
       <c r="P7">
-        <v>0.8036360573586609</v>
+        <v>0.7882033865305114</v>
       </c>
       <c r="Q7">
         <v>0.09766547155999999</v>
@@ -883,10 +883,10 @@
         <v>0.87898924404</v>
       </c>
       <c r="S7">
-        <v>0.1193639573649181</v>
+        <v>0.3980101141950028</v>
       </c>
       <c r="T7">
-        <v>0.1756322665008</v>
+        <v>0.5151803837102452</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.110328</v>
       </c>
       <c r="I8">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J8">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5198769999999999</v>
+        <v>0.9728370000000001</v>
       </c>
       <c r="N8">
-        <v>1.039754</v>
+        <v>1.945674</v>
       </c>
       <c r="O8">
-        <v>0.1486942202181889</v>
+        <v>0.2617014683024538</v>
       </c>
       <c r="P8">
-        <v>0.1048798841206565</v>
+        <v>0.1924910567184946</v>
       </c>
       <c r="Q8">
-        <v>0.01911899655199999</v>
+        <v>0.035777053512</v>
       </c>
       <c r="R8">
-        <v>0.114713979312</v>
+        <v>0.214662321072</v>
       </c>
       <c r="S8">
-        <v>0.02336669298617929</v>
+        <v>0.1458000348170524</v>
       </c>
       <c r="T8">
-        <v>0.02292118626308878</v>
+        <v>0.125814755627399</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>0.110328</v>
       </c>
       <c r="I9">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J9">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.26551</v>
+        <v>0.017474</v>
       </c>
       <c r="N9">
-        <v>0.7965300000000001</v>
+        <v>0.052422</v>
       </c>
       <c r="O9">
-        <v>0.07594065982940454</v>
+        <v>0.004700655358623364</v>
       </c>
       <c r="P9">
-        <v>0.08034590306805893</v>
+        <v>0.005186257397332197</v>
       </c>
       <c r="Q9">
-        <v>0.009764395759999999</v>
+        <v>0.0006426238239999999</v>
       </c>
       <c r="R9">
-        <v>0.08787956184000001</v>
+        <v>0.005783614416</v>
       </c>
       <c r="S9">
-        <v>0.01193376636158257</v>
+        <v>0.002618845508952861</v>
       </c>
       <c r="T9">
-        <v>0.01755935778476265</v>
+        <v>0.003389807912065182</v>
       </c>
     </row>
   </sheetData>
